--- a/data/hotels_by_city/Dallas/Dallas_shard_126.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_126.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>STR#</t>
   </si>
@@ -144,6 +144,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>MGBAW</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Disappointing, the surrounding area is under construction.  The hotel was somewhat hard to find, hard to find space to park due to the hospital emergency is right outside the hotel door.  The maids need to pay more attention to there cleaning as they lack skills to cleansing.More</t>
   </si>
   <si>
+    <t>its-wat_it_is</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r558147690-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>Great property in that it is brand new, The surrounding area and parking lot are still under construction. The arrival with any GPS may lead you to think that the address is wrong as you enter thru a hospital entrance. There is a substantial flaw in the design of this building - and hard to believe that it was not factored by the architects - the sewer pipes are in the wall behind the head rest of your bed. You will be surprised when your neighbor in the rooms above flush their toilet. The sound is load and clear as the water and other things travel through the PVC pipping. Try to get a room on the 5th floor to avoid this from happening. The Staff is super nice and welcoming.More</t>
   </si>
   <si>
+    <t>Marcy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r551285069-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Finally there is a nice hotel in Flower Mound. Our son and his family live in Flower Mound, and we’ve had to drive to Lewisville to stay in some not-so-nice places in the past! The hotel is beautiful, the staff is very friendly and helpful (I needed some packing tape to ship a box at the post office &amp; they provided it happily!). It was great getting Starbucks every morning, and River Walk area is going to be spectacular when it’s done!More</t>
   </si>
   <si>
+    <t>McDaniel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r550980952-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>From the kind greeting upon entering to the personal touches throughout my stay, this place is a keeper in my travel itinerary.  The hotel is very new so everything is neat and clean which is always a plus.  the neighborhood is developing so not fully baked yet but you are certainly close to more mature neighborhoods and downtown Dallas, as well as Love Field and DFW.I did say this hotel has great views since my room faced the "Riverwalk" which is still being developed.  the views will be spectacular.I have to go back to the staff here as that is what makes this Courtyard so special.  EVERYONE is friendly, helpful and simply engaging. Thank you to everyone at the Courtyard for all you do - it matters :-)More</t>
   </si>
   <si>
+    <t>Amir G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529653855-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>We had a wonderful experience in the hotel. The Room was very clean and well equipped, the staff was very nice and helpful. Everything was beyond our exceptions.Ask for a view of the riverwalk, it's beautiful.</t>
   </si>
   <si>
+    <t>Rafaella D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529628807-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>This brand new hotel is flawless.  From the meeting rooms to the staff to the bar menu every aspect glows with efficiency and effectiveness.  Every staff person we met was knowledgeable friendly and thoroughly engaged.  The pool area is gorgeous as is the gym area.</t>
   </si>
   <si>
+    <t>Rafael O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528582628-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>This hotel is beautiful and brand new!  The Front Desk Staff was extremely welcoming, the rooms were clean and immaculate, and food was delish.  There wasn’t anything I didn’t like about this hotel.  The hotel is located on a river walk behind a hospital and beautiful homes nearby. I will definitely be returning. More</t>
   </si>
   <si>
+    <t>Jeremy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528373189-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>This place is great!  All the employees are excellent and greet you immediately.  They have a great indoor pool, large fitness center, laundry room to do your clothes.  The bar/restaurant is the best!  They have booths with individual screens and an excellent selection of drinks and food.  There are two large fire pits outside with lots of seating.  The rooms are really nice and new with lots of ports for plugging devices, interactive television to stream Netflix and more.  Mini-fridges in all rooms and bathroom was large with a very nice shower.  The beds are super comfortable too! I can't say enough about this place.  It's in a great location with a river view from our room.  This will be a very popular destination.More</t>
   </si>
   <si>
+    <t>ERBG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585603050-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -370,6 +397,9 @@
   </si>
   <si>
     <t>This hotel is brand new and LOOKS great with stylish fixtures and minimal functional design elements...however, it’s actually less comfortable than any Marriott hotel I’ve ever stayed in. The linens are cheap and designed to be easy to make the bed, not comfortable for the guest. The “bistro” is like a roller rink snack bar. The ONE person working there is responsible for making things like meatballs and ricotta (the meatballs were like frozen mystery meat). It took 45 minutes for our food to be prepared and my daughter got sick from the soup. THERE AREN’T MICROWAVES IN ROOM...so the subpar bistro is the only option, or UberEats which is pretty reasonable around here. The worst part of this under staffed hotel is the manager, Amy. She actually answers the phone at the front desk and has zero interest in accommodating the guests. She literally was like, “sorry, that’s just the way it is here” with zero attempt to make anything right.More</t>
+  </si>
+  <si>
+    <t>witherspoonq</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585391854-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
@@ -444,6 +474,9 @@
 Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them...Stayed with my family here while my house underwent some construction.  So, here's the dig:Pro's:-It's the only hotel in Flower Mound (for now.)-It's right next to the hospital (just in case.)-It's bright and shiny new.-It has a nice conference facility.-Staff is super friendly.-"Bistro" has good food and drink - and they'll package it to go for you to take up to     your room.-Complimentary parking in a garage.-Sizeable rooms with abundant amenities.-Very nice gym with nice equipment.-Brand name soaps, shampoos, etc.-Small store with beer, wine, toiletries, necessities.Cons:-Front desk allows deliveries direct to your room - NEVER, NEVER, NEVER give out a customer's room number!!!!!  Always, call them down to pick up deliveries.-Way overpriced.  This will correct itself once more hotels move into town.-High Demand means no vacancy - book ahead of time.-The indoor swimming pool is about the size of a large bathtub.-The typical rate does not include breakfast or coffee.  (If you purchase a package deal, then you can get breakfast and beverages.-Small hotel - only about 175 rooms.-No Witherspoon Bourbon Whiskey (I'm working on this.)-Décor is very neutral (Modern plain style.)-Beds are hard (Says my wife.)-No PETS.Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them into my house.More</t>
   </si>
   <si>
+    <t>Derek B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r576829088-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -471,6 +504,9 @@
     <t>Once we finally found the hotel, we attempted to check-in, but they didn't have any rooms ready for us. So we waited around, finally got our room, and got everything taken to our room. Our room was nice looking, nothing spectacular, but it wasn't super clean. We found clumps of hair and crushed cheetos on the floor. The worst part was that the shower didn't have a door. It made a mess in the bathroom, and honestly, was just awkward.... Not an awful place to stay, but a little pricey for what was offered.More</t>
   </si>
   <si>
+    <t>Helen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r570661661-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -490,6 +526,9 @@
   </si>
   <si>
     <t>If you are looking for an amazingly clean, well thought out, restful stay with wonderful helpful staff, good location, easy parking then this is the hotel for you! I've stayed in a lot of places over the years and this hotel beats them all hands down.  It is fairly new, only having built 6 months earlier and everything has a beautifully clean and pristine feel to it.  They were doing a bit of minor re-pointing to the exterior whilst we were there but never caused us any issues and no noise.  Very quiet setting and the rooms are well laid out and very spacious!  Just wish I could have brought the bed home with me as boy was it comfy!   Please keep up the amazing service, the staff were incredible.  A big thumbs up for this hotel, we will stay again.More</t>
+  </si>
+  <si>
+    <t>Wendy O</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r564775643-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
@@ -1010,43 +1049,47 @@
       <c r="A2" t="n">
         <v>66495</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>126792</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1058,56 +1101,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66495</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>126793</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1127,50 +1174,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66495</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>126794</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1182,56 +1233,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66495</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>126795</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1249,7 +1304,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1262,37 +1317,37 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1310,56 +1365,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66495</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>126796</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1377,50 +1436,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66495</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>126797</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1440,50 +1503,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66495</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1495,56 +1562,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66495</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3133</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>100</v>
-      </c>
       <c r="O10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1564,50 +1635,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66495</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126798</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1621,50 +1696,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66495</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>126799</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1680,56 +1759,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66495</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>36151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1747,56 +1830,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66495</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>2077</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1814,50 +1901,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66495</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>72526</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1871,7 +1962,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_126.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_126.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>STR#</t>
   </si>
@@ -144,238 +144,178 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>MGBAW</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r607113574-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>55844</t>
+  </si>
+  <si>
+    <t>12879973</t>
+  </si>
+  <si>
+    <t>607113574</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Wondeful stay at this great new hotel!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for a wedding this past weekend and I could not have been happier with our visit. The hotel is so new that it still has the new smell to it, both in the hallways and the room. The rooms are the "new" Courtyard design that include outlets and USB ports just about everywhere. The televisions are large and have Netflix connected, that's always a bonus. The bathrooms are well designed with large walk-in showers.I found the staff went out of their way to make us feel welcome. Upon check-in, my Platinum status was acknowledged and were were upgraded to a suit on the top floor. It had a balcony and view of the Riverwalk. While we did not need the entire two room suite, it was a much appreciated gesture and we did enjoy it. My only very minor complaint is that the bed was a little hard, but I still slept fine.The hotel has some nice touches like fire pits out back and many media pods throughout the lobby. I suspect that when the Riverwalk project is completed, this will be quite a lively area. Even now, there are many options for dining and shopping within minutes by car. If I ever had a reason to return to Flower Mound, I would gladly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for a wedding this past weekend and I could not have been happier with our visit. The hotel is so new that it still has the new smell to it, both in the hallways and the room. The rooms are the "new" Courtyard design that include outlets and USB ports just about everywhere. The televisions are large and have Netflix connected, that's always a bonus. The bathrooms are well designed with large walk-in showers.I found the staff went out of their way to make us feel welcome. Upon check-in, my Platinum status was acknowledged and were were upgraded to a suit on the top floor. It had a balcony and view of the Riverwalk. While we did not need the entire two room suite, it was a much appreciated gesture and we did enjoy it. My only very minor complaint is that the bed was a little hard, but I still slept fine.The hotel has some nice touches like fire pits out back and many media pods throughout the lobby. I suspect that when the Riverwalk project is completed, this will be quite a lively area. Even now, there are many options for dining and shopping within minutes by car. If I ever had a reason to return to Flower Mound, I would gladly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r605732539-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>605732539</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>Staff is friendly and professional &amp; rooms are spacious, great social area!!</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for the weekend last month and was made to feel right at home from the beginning. The front desk staff was professional and courteous, getting me &amp; my guests in our rooms quickly. I locked my 'key' in my room more than once &amp; they did not act put out at all to issue me another card each time. The happy hour was great, with tasty snacks and $3 champagne! I enjoyed time in their social area (open seating in front of the bar/kitchen). Across from that seating is a 'living room' with TVs and lots of comfortable chairs. Nice way to get out of your room &amp; not actually go anywhere. We ate plenty from the kitchen/bar - great food. No room service, which is ok, the breakfast can be called in ahead of time &amp; picked up. They made me some egg whites with my pancakes. The indoor pool is nice, with plenty of towels and chairs for watching the little ones. Stroll out to the patio past the pool for comfy sofas &amp; chairs with a pit in the middle. The rooms are spacious &amp; new, nice and bright. I would love to visit again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms for the weekend last month and was made to feel right at home from the beginning. The front desk staff was professional and courteous, getting me &amp; my guests in our rooms quickly. I locked my 'key' in my room more than once &amp; they did not act put out at all to issue me another card each time. The happy hour was great, with tasty snacks and $3 champagne! I enjoyed time in their social area (open seating in front of the bar/kitchen). Across from that seating is a 'living room' with TVs and lots of comfortable chairs. Nice way to get out of your room &amp; not actually go anywhere. We ate plenty from the kitchen/bar - great food. No room service, which is ok, the breakfast can be called in ahead of time &amp; picked up. They made me some egg whites with my pancakes. The indoor pool is nice, with plenty of towels and chairs for watching the little ones. Stroll out to the patio past the pool for comfy sofas &amp; chairs with a pit in the middle. The rooms are spacious &amp; new, nice and bright. I would love to visit again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r594409800-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>594409800</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>The rooms and common areas are great.  The rooms are contemporary and comfortable. The pool should have been outside.  There is not an outside pool.  The bar/breakfast area is curious and unnecessary.  There are numerous great eateries in the area.  Walk out the back door at night and look to the left for the developing Riverwalk.  It is not finished.  You can walk to the clock tower and enjoy the lights and water features.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r593546938-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>593546938</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Pros &amp; Cons</t>
+  </si>
+  <si>
+    <t>Pros:Nice, clean, friendly, helpful desk staff when checking in and needing directions to our event.Breakfast (not included) is very good.Cons:Over priced rooms, esp. when Breakfast is not included.Hard to find location.  When called, they said their address does not exist yet because they are new and that it states on the web site - not true.  Couldn't find anything like that.  And when booking by phone, no one ever mentioned it.They tell you (by sign) that there will be a hold on credit and debit cards, but they don't tell you what amount it will be.   We had 2 rooms.  They put a hold on the credit card for each room in amounts that were more than the total of the rooms incl. tax!!Of course the hold went off after 7 days, but if it had been a debit card, it might have been an issue for some.  When I inquired, I was told by the person who answered the call that it is usually only 20 - 50.00 per night and couldn't explain why ours was so high.   Contacted corporate and got a response stating the same and said it would be looked in to.   Still nothing back after 2 weeks.  Guess they are not that interested in this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2018</t>
+  </si>
+  <si>
+    <t>Pros:Nice, clean, friendly, helpful desk staff when checking in and needing directions to our event.Breakfast (not included) is very good.Cons:Over priced rooms, esp. when Breakfast is not included.Hard to find location.  When called, they said their address does not exist yet because they are new and that it states on the web site - not true.  Couldn't find anything like that.  And when booking by phone, no one ever mentioned it.They tell you (by sign) that there will be a hold on credit and debit cards, but they don't tell you what amount it will be.   We had 2 rooms.  They put a hold on the credit card for each room in amounts that were more than the total of the rooms incl. tax!!Of course the hold went off after 7 days, but if it had been a debit card, it might have been an issue for some.  When I inquired, I was told by the person who answered the call that it is usually only 20 - 50.00 per night and couldn't explain why ours was so high.   Contacted corporate and got a response stating the same and said it would be looked in to.   Still nothing back after 2 weeks.  Guess they are not that interested in this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r589293566-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>589293566</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Some pluses and some minuses</t>
+  </si>
+  <si>
+    <t>Spent two nights here a week ago. First, we couldn't find it from the highway. We finally had to call the hotel to get directions which included "...don't pay attention to the address." We were directed to look behind a medical center. Voila, there it was...well hidden in my opinion. The desk staff were efficient and friendly. The hotel is newish and that fact shows. The desk person asked if we were there for a wedding. (There were several.) I explained we had a family situation but not a wedding. Our room was on the second floor. There are two elevators just around from the front desk. The free parking and wi-fi were pluses. The room was newly and nicely furnished and comfortable. There is an in room coffee device. The beds and bedding were to our liking. On the other side, there is a problem with the sound proofing in the rooms. When the toilet was flushed in the room above, you can clearly hear it. Also, when the occupant(s) of the room above walked around, you can hear the bam bam of the footsteps. Finally, there is no complimentary breakfast of any sort. All in all, a hard-to-find newer property, nicely furnished, competently staffed with free parking and wi-fi...with poorly constructed therefore noisy room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Spent two nights here a week ago. First, we couldn't find it from the highway. We finally had to call the hotel to get directions which included "...don't pay attention to the address." We were directed to look behind a medical center. Voila, there it was...well hidden in my opinion. The desk staff were efficient and friendly. The hotel is newish and that fact shows. The desk person asked if we were there for a wedding. (There were several.) I explained we had a family situation but not a wedding. Our room was on the second floor. There are two elevators just around from the front desk. The free parking and wi-fi were pluses. The room was newly and nicely furnished and comfortable. There is an in room coffee device. The beds and bedding were to our liking. On the other side, there is a problem with the sound proofing in the rooms. When the toilet was flushed in the room above, you can clearly hear it. Also, when the occupant(s) of the room above walked around, you can hear the bam bam of the footsteps. Finally, there is no complimentary breakfast of any sort. All in all, a hard-to-find newer property, nicely furnished, competently staffed with free parking and wi-fi...with poorly constructed therefore noisy room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r586813804-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>586813804</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Upgraded stay</t>
+  </si>
+  <si>
+    <t>This is a newly renovated Marriott and it shows. The lobby is great and has tons of seating all with plugs in all the furniture including seats. There are some rooms with balconies that overlook the river walk that is being built. There is also an updated fire pot area outside that is a great site to work or hang out. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a newly renovated Marriott and it shows. The lobby is great and has tons of seating all with plugs in all the furniture including seats. There are some rooms with balconies that overlook the river walk that is being built. There is also an updated fire pot area outside that is a great site to work or hang out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585852250-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>585852250</t>
   </si>
   <si>
     <t>06/07/2018</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r558422675-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>55844</t>
-  </si>
-  <si>
-    <t>12879973</t>
-  </si>
-  <si>
-    <t>558422675</t>
-  </si>
-  <si>
-    <t>02/04/2018</t>
-  </si>
-  <si>
-    <t>Disappointing</t>
-  </si>
-  <si>
-    <t>Disappointing, the surrounding area is under construction.  The hotel was somewhat hard to find, hard to find space to park due to the hospital emergency is right outside the hotel door.  The maids need to pay more attention to there cleaning as they lack skills to cleansing.MoreShow less</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded February 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 5, 2018</t>
-  </si>
-  <si>
-    <t>Disappointing, the surrounding area is under construction.  The hotel was somewhat hard to find, hard to find space to park due to the hospital emergency is right outside the hotel door.  The maids need to pay more attention to there cleaning as they lack skills to cleansing.More</t>
-  </si>
-  <si>
-    <t>its-wat_it_is</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r558147690-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>558147690</t>
-  </si>
-  <si>
-    <t>02/03/2018</t>
-  </si>
-  <si>
-    <t>Careful with the waterfall</t>
-  </si>
-  <si>
-    <t>Great property in that it is brand new, The surrounding area and parking lot are still under construction. The arrival with any GPS may lead you to think that the address is wrong as you enter thru a hospital entrance. There is a substantial flaw in the design of this building - and hard to believe that it was not factored by the architects - the sewer pipes are in the wall behind the head rest of your bed. You will be surprised when your neighbor in the rooms above flush their toilet. The sound is load and clear as the water and other things travel through the PVC pipping. Try to get a room on the 5th floor to avoid this from happening. The Staff is super nice and welcoming.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Great property in that it is brand new, The surrounding area and parking lot are still under construction. The arrival with any GPS may lead you to think that the address is wrong as you enter thru a hospital entrance. There is a substantial flaw in the design of this building - and hard to believe that it was not factored by the architects - the sewer pipes are in the wall behind the head rest of your bed. You will be surprised when your neighbor in the rooms above flush their toilet. The sound is load and clear as the water and other things travel through the PVC pipping. Try to get a room on the 5th floor to avoid this from happening. The Staff is super nice and welcoming.More</t>
-  </si>
-  <si>
-    <t>Marcy P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r551285069-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>551285069</t>
-  </si>
-  <si>
-    <t>01/03/2018</t>
-  </si>
-  <si>
-    <t>Finally!</t>
-  </si>
-  <si>
-    <t>Finally there is a nice hotel in Flower Mound. Our son and his family live in Flower Mound, and we’ve had to drive to Lewisville to stay in some not-so-nice places in the past! The hotel is beautiful, the staff is very friendly and helpful (I needed some packing tape to ship a box at the post office &amp; they provided it happily!). It was great getting Starbucks every morning, and River Walk area is going to be spectacular when it’s done!MoreShow less</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded January 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 5, 2018</t>
-  </si>
-  <si>
-    <t>Finally there is a nice hotel in Flower Mound. Our son and his family live in Flower Mound, and we’ve had to drive to Lewisville to stay in some not-so-nice places in the past! The hotel is beautiful, the staff is very friendly and helpful (I needed some packing tape to ship a box at the post office &amp; they provided it happily!). It was great getting Starbucks every morning, and River Walk area is going to be spectacular when it’s done!More</t>
-  </si>
-  <si>
-    <t>McDaniel H</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r550980952-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>550980952</t>
-  </si>
-  <si>
-    <t>01/02/2018</t>
-  </si>
-  <si>
-    <t>New hotel, but off to a great start</t>
-  </si>
-  <si>
-    <t>I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would...I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would affect my family.Update: My family finally checked in and we enjoyed our stay. We got an opportunity to get in the pool. It is restricted to 29 people, so we were safe...LoL. My spouse and I went outside to the fire pit to sit and enjoy the area. We soon discovered that cigarette smokers we're frequently in the area over the weekend. As a non-smoking couple, we departed the area and surrendered it to the smokers. We discovered the washer and dryer in the laundry room. The cost of the two machines was in line with what one expects to pay for such convenience options.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would...I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would affect my family.Update: My family finally checked in and we enjoyed our stay. We got an opportunity to get in the pool. It is restricted to 29 people, so we were safe...LoL. My spouse and I went outside to the fire pit to sit and enjoy the area. We soon discovered that cigarette smokers we're frequently in the area over the weekend. As a non-smoking couple, we departed the area and surrendered it to the smokers. We discovered the washer and dryer in the laundry room. The cost of the two machines was in line with what one expects to pay for such convenience options.More</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r549862175-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>549862175</t>
-  </si>
-  <si>
-    <t>12/28/2017</t>
-  </si>
-  <si>
-    <t>Best Courtyard stay EVER!!!</t>
-  </si>
-  <si>
-    <t>From the kind greeting upon entering to the personal touches throughout my stay, this place is a keeper in my travel itinerary.  The hotel is very new so everything is neat and clean which is always a plus.  the neighborhood is developing so not fully baked yet but you are certainly close to more mature neighborhoods and downtown Dallas, as well as Love Field and DFW.I did say this hotel has great views since my room faced the "Riverwalk" which is still being developed.  the views will be spectacular.I have to go back to the staff here as that is what makes this Courtyard so special.  EVERYONE is friendly, helpful and simply engaging. Thank you to everyone at the Courtyard for all you do - it matters :-)MoreShow less</t>
-  </si>
-  <si>
-    <t>From the kind greeting upon entering to the personal touches throughout my stay, this place is a keeper in my travel itinerary.  The hotel is very new so everything is neat and clean which is always a plus.  the neighborhood is developing so not fully baked yet but you are certainly close to more mature neighborhoods and downtown Dallas, as well as Love Field and DFW.I did say this hotel has great views since my room faced the "Riverwalk" which is still being developed.  the views will be spectacular.I have to go back to the staff here as that is what makes this Courtyard so special.  EVERYONE is friendly, helpful and simply engaging. Thank you to everyone at the Courtyard for all you do - it matters :-)More</t>
-  </si>
-  <si>
-    <t>Amir G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529653855-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>529653855</t>
-  </si>
-  <si>
-    <t>10/03/2017</t>
-  </si>
-  <si>
-    <t>Excellent!</t>
-  </si>
-  <si>
-    <t>We had a wonderful experience in the hotel. The Room was very clean and well equipped, the staff was very nice and helpful. Everything was beyond our exceptions.Ask for a view of the riverwalk, it's beautiful.</t>
-  </si>
-  <si>
-    <t>Rafaella D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529628807-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>529628807</t>
-  </si>
-  <si>
-    <t>Awesome Meeting Areas and Brand New Rooms</t>
-  </si>
-  <si>
-    <t>This brand new hotel is flawless.  From the meeting rooms to the staff to the bar menu every aspect glows with efficiency and effectiveness.  Every staff person we met was knowledgeable friendly and thoroughly engaged.  The pool area is gorgeous as is the gym area.</t>
-  </si>
-  <si>
-    <t>Rafael O</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528582628-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>528582628</t>
-  </si>
-  <si>
-    <t>09/30/2017</t>
-  </si>
-  <si>
-    <t>Outstanding</t>
-  </si>
-  <si>
-    <t>This hotel is beautiful and brand new!  The Front Desk Staff was extremely welcoming, the rooms were clean and immaculate, and food was delish.  There wasn’t anything I didn’t like about this hotel.  The hotel is located on a river walk behind a hospital and beautiful homes nearby. I will definitely be returning. MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded October 9, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 9, 2017</t>
-  </si>
-  <si>
-    <t>This hotel is beautiful and brand new!  The Front Desk Staff was extremely welcoming, the rooms were clean and immaculate, and food was delish.  There wasn’t anything I didn’t like about this hotel.  The hotel is located on a river walk behind a hospital and beautiful homes nearby. I will definitely be returning. More</t>
-  </si>
-  <si>
-    <t>Jeremy S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528373189-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
-  </si>
-  <si>
-    <t>528373189</t>
-  </si>
-  <si>
-    <t>09/29/2017</t>
-  </si>
-  <si>
-    <t>Amazing new hotel</t>
-  </si>
-  <si>
-    <t>This place is great!  All the employees are excellent and greet you immediately.  They have a great indoor pool, large fitness center, laundry room to do your clothes.  The bar/restaurant is the best!  They have booths with individual screens and an excellent selection of drinks and food.  There are two large fire pits outside with lots of seating.  The rooms are really nice and new with lots of ports for plugging devices, interactive television to stream Netflix and more.  Mini-fridges in all rooms and bathroom was large with a very nice shower.  The beds are super comfortable too! I can't say enough about this place.  It's in a great location with a river view from our room.  This will be a very popular destination.MoreShow less</t>
-  </si>
-  <si>
-    <t>This place is great!  All the employees are excellent and greet you immediately.  They have a great indoor pool, large fitness center, laundry room to do your clothes.  The bar/restaurant is the best!  They have booths with individual screens and an excellent selection of drinks and food.  There are two large fire pits outside with lots of seating.  The rooms are really nice and new with lots of ports for plugging devices, interactive television to stream Netflix and more.  Mini-fridges in all rooms and bathroom was large with a very nice shower.  The beds are super comfortable too! I can't say enough about this place.  It's in a great location with a river view from our room.  This will be a very popular destination.More</t>
-  </si>
-  <si>
-    <t>ERBG</t>
+    <t>Recommend to anyone!</t>
+  </si>
+  <si>
+    <t>This hotel is great! Good food, friendly staff and modern upgraded amenities. They are developing a riverwalk that will have stores, bars and restaurants with walking distance. Can’t wait to bring my family back to this place!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585735792-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>585735792</t>
+  </si>
+  <si>
+    <t>Outstanding Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a Marriott Rewards member, and I stay in way too many hotels all across the country, but I found this location to be a little better than most. Yes, the hotel is new (not even a year old) but the staff are exceptional. From the front desk to the folks working at The Bistro, my hats off to you for being so nice. A Shout Out to your GM is definitely in order as well.Thank you for making my new Dallas "home hotel" a nice place to come home to. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585603050-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
@@ -393,13 +333,13 @@
     <t>This hotel is brand new and LOOKS great with stylish fixtures and minimal functional design elements...however, it’s actually less comfortable than any Marriott hotel I’ve ever stayed in. The linens are cheap and designed to be easy to make the bed, not comfortable for the guest. The “bistro” is like a roller rink snack bar. The ONE person working there is responsible for making things like meatballs and ricotta (the meatballs were like frozen mystery meat). It took 45 minutes for our food to be prepared and my daughter got sick from the soup. THERE AREN’T MICROWAVES IN ROOM...so the subpar bistro is the only option, or UberEats which is pretty reasonable around here. The worst part of this under staffed hotel is the manager, Amy. She actually answers the phone at the front desk and has zero interest in accommodating the guests. She literally was like, “sorry, that’s just the way it is here” with zero attempt to make anything right.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded June 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2018</t>
   </si>
   <si>
     <t>This hotel is brand new and LOOKS great with stylish fixtures and minimal functional design elements...however, it’s actually less comfortable than any Marriott hotel I’ve ever stayed in. The linens are cheap and designed to be easy to make the bed, not comfortable for the guest. The “bistro” is like a roller rink snack bar. The ONE person working there is responsible for making things like meatballs and ricotta (the meatballs were like frozen mystery meat). It took 45 minutes for our food to be prepared and my daughter got sick from the soup. THERE AREN’T MICROWAVES IN ROOM...so the subpar bistro is the only option, or UberEats which is pretty reasonable around here. The worst part of this under staffed hotel is the manager, Amy. She actually answers the phone at the front desk and has zero interest in accommodating the guests. She literally was like, “sorry, that’s just the way it is here” with zero attempt to make anything right.More</t>
-  </si>
-  <si>
-    <t>witherspoonq</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r585391854-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
@@ -441,10 +381,10 @@
 Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them...Stayed with my family here while my house underwent some construction.  So, here's the dig:Pro's:-It's the only hotel in Flower Mound (for now.)-It's right next to the hospital (just in case.)-It's bright and shiny new.-It has a nice conference facility.-Staff is super friendly.-"Bistro" has good food and drink - and they'll package it to go for you to take up to     your room.-Complimentary parking in a garage.-Sizeable rooms with abundant amenities.-Very nice gym with nice equipment.-Brand name soaps, shampoos, etc.-Small store with beer, wine, toiletries, necessities.Cons:-Front desk allows deliveries direct to your room - NEVER, NEVER, NEVER give out a customer's room number!!!!!  Always, call them down to pick up deliveries.-Way overpriced.  This will correct itself once more hotels move into town.-High Demand means no vacancy - book ahead of time.-The indoor swimming pool is about the size of a large bathtub.-The typical rate does not include breakfast or coffee.  (If you purchase a package deal, then you can get breakfast and beverages.-Small hotel - only about 175 rooms.-No Witherspoon Bourbon Whiskey (I'm working on this.)-Décor is very neutral (Modern plain style.)-Beds are hard (Says my wife.)-No PETS.Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them into my house.MoreShow less</t>
   </si>
   <si>
-    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded yesterday</t>
-  </si>
-  <si>
-    <t>Responded yesterday</t>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
   </si>
   <si>
     <t>Stayed with my family here while my house underwent some construction.  So, here's the dig:
@@ -474,9 +414,6 @@
 Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them...Stayed with my family here while my house underwent some construction.  So, here's the dig:Pro's:-It's the only hotel in Flower Mound (for now.)-It's right next to the hospital (just in case.)-It's bright and shiny new.-It has a nice conference facility.-Staff is super friendly.-"Bistro" has good food and drink - and they'll package it to go for you to take up to     your room.-Complimentary parking in a garage.-Sizeable rooms with abundant amenities.-Very nice gym with nice equipment.-Brand name soaps, shampoos, etc.-Small store with beer, wine, toiletries, necessities.Cons:-Front desk allows deliveries direct to your room - NEVER, NEVER, NEVER give out a customer's room number!!!!!  Always, call them down to pick up deliveries.-Way overpriced.  This will correct itself once more hotels move into town.-High Demand means no vacancy - book ahead of time.-The indoor swimming pool is about the size of a large bathtub.-The typical rate does not include breakfast or coffee.  (If you purchase a package deal, then you can get breakfast and beverages.-Small hotel - only about 175 rooms.-No Witherspoon Bourbon Whiskey (I'm working on this.)-Décor is very neutral (Modern plain style.)-Beds are hard (Says my wife.)-No PETS.Altogether, the place is nice enough.  The hotel doesn't claim Luxury status; so, its on the mark.  I would gladly put my family up here, rather than squeeze them into my house.More</t>
   </si>
   <si>
-    <t>Derek B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r576829088-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -504,9 +441,6 @@
     <t>Once we finally found the hotel, we attempted to check-in, but they didn't have any rooms ready for us. So we waited around, finally got our room, and got everything taken to our room. Our room was nice looking, nothing spectacular, but it wasn't super clean. We found clumps of hair and crushed cheetos on the floor. The worst part was that the shower didn't have a door. It made a mess in the bathroom, and honestly, was just awkward.... Not an awful place to stay, but a little pricey for what was offered.More</t>
   </si>
   <si>
-    <t>Helen T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r570661661-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -528,9 +462,6 @@
     <t>If you are looking for an amazingly clean, well thought out, restful stay with wonderful helpful staff, good location, easy parking then this is the hotel for you! I've stayed in a lot of places over the years and this hotel beats them all hands down.  It is fairly new, only having built 6 months earlier and everything has a beautifully clean and pristine feel to it.  They were doing a bit of minor re-pointing to the exterior whilst we were there but never caused us any issues and no noise.  Very quiet setting and the rooms are well laid out and very spacious!  Just wish I could have brought the bed home with me as boy was it comfy!   Please keep up the amazing service, the staff were incredible.  A big thumbs up for this hotel, we will stay again.More</t>
   </si>
   <si>
-    <t>Wendy O</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r564775643-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
   </si>
   <si>
@@ -547,6 +478,282 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r558422675-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>558422675</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Disappointing, the surrounding area is under construction.  The hotel was somewhat hard to find, hard to find space to park due to the hospital emergency is right outside the hotel door.  The maids need to pay more attention to there cleaning as they lack skills to cleansing.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Disappointing, the surrounding area is under construction.  The hotel was somewhat hard to find, hard to find space to park due to the hospital emergency is right outside the hotel door.  The maids need to pay more attention to there cleaning as they lack skills to cleansing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r558147690-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>558147690</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Careful with the waterfall</t>
+  </si>
+  <si>
+    <t>Great property in that it is brand new, The surrounding area and parking lot are still under construction. The arrival with any GPS may lead you to think that the address is wrong as you enter thru a hospital entrance. There is a substantial flaw in the design of this building - and hard to believe that it was not factored by the architects - the sewer pipes are in the wall behind the head rest of your bed. You will be surprised when your neighbor in the rooms above flush their toilet. The sound is load and clear as the water and other things travel through the PVC pipping. Try to get a room on the 5th floor to avoid this from happening. The Staff is super nice and welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Great property in that it is brand new, The surrounding area and parking lot are still under construction. The arrival with any GPS may lead you to think that the address is wrong as you enter thru a hospital entrance. There is a substantial flaw in the design of this building - and hard to believe that it was not factored by the architects - the sewer pipes are in the wall behind the head rest of your bed. You will be surprised when your neighbor in the rooms above flush their toilet. The sound is load and clear as the water and other things travel through the PVC pipping. Try to get a room on the 5th floor to avoid this from happening. The Staff is super nice and welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r551285069-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>551285069</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Finally!</t>
+  </si>
+  <si>
+    <t>Finally there is a nice hotel in Flower Mound. Our son and his family live in Flower Mound, and we’ve had to drive to Lewisville to stay in some not-so-nice places in the past! The hotel is beautiful, the staff is very friendly and helpful (I needed some packing tape to ship a box at the post office &amp; they provided it happily!). It was great getting Starbucks every morning, and River Walk area is going to be spectacular when it’s done!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Finally there is a nice hotel in Flower Mound. Our son and his family live in Flower Mound, and we’ve had to drive to Lewisville to stay in some not-so-nice places in the past! The hotel is beautiful, the staff is very friendly and helpful (I needed some packing tape to ship a box at the post office &amp; they provided it happily!). It was great getting Starbucks every morning, and River Walk area is going to be spectacular when it’s done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r550980952-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>550980952</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>New hotel, but off to a great start</t>
+  </si>
+  <si>
+    <t>I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would...I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would affect my family.Update: My family finally checked in and we enjoyed our stay. We got an opportunity to get in the pool. It is restricted to 29 people, so we were safe...LoL. My spouse and I went outside to the fire pit to sit and enjoy the area. We soon discovered that cigarette smokers we're frequently in the area over the weekend. As a non-smoking couple, we departed the area and surrendered it to the smokers. We discovered the washer and dryer in the laundry room. The cost of the two machines was in line with what one expects to pay for such convenience options.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would...I came by here to check and see if the hotel was open. I met with Raphael who was visiting from another hotel assisting with the opening of this particular hotel. He took me on a 2 minute tour of some of the areas of the first floor...like the business center that featured a Mac and a PC computer; the swimming pool area which was equipped with a handicap lift; the exterior sitting area with a gas fire pit that my spouse would love; the common area around by the Bistro Restaurant. He spent a few minutes talking about the restaurant and talking more about the hotel amenities.  The front desk clerk was great and pulled up my registration and posted both of my rooms together, so the kids won't be able to have a party while we were staying there. He did add that a parking garage was being built, so I snapped a picture of that sign also. The desk clerk commented that the big screen TV in the lobby is a computer monitor that customers can use to search the area. Wow...lol. This hotel is facing the rear area Emergency Room of Texas Health Presbyterian Flower Mound. The Riverwalk is just across the street and it has a number of area to walk around. Amy, is great too. She contacted me when my reservation was in danger and advised of situations happening at the hotel that would affect my family.Update: My family finally checked in and we enjoyed our stay. We got an opportunity to get in the pool. It is restricted to 29 people, so we were safe...LoL. My spouse and I went outside to the fire pit to sit and enjoy the area. We soon discovered that cigarette smokers we're frequently in the area over the weekend. As a non-smoking couple, we departed the area and surrendered it to the smokers. We discovered the washer and dryer in the laundry room. The cost of the two machines was in line with what one expects to pay for such convenience options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r549862175-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>549862175</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Best Courtyard stay EVER!!!</t>
+  </si>
+  <si>
+    <t>From the kind greeting upon entering to the personal touches throughout my stay, this place is a keeper in my travel itinerary.  The hotel is very new so everything is neat and clean which is always a plus.  the neighborhood is developing so not fully baked yet but you are certainly close to more mature neighborhoods and downtown Dallas, as well as Love Field and DFW.I did say this hotel has great views since my room faced the "Riverwalk" which is still being developed.  the views will be spectacular.I have to go back to the staff here as that is what makes this Courtyard so special.  EVERYONE is friendly, helpful and simply engaging. Thank you to everyone at the Courtyard for all you do - it matters :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>From the kind greeting upon entering to the personal touches throughout my stay, this place is a keeper in my travel itinerary.  The hotel is very new so everything is neat and clean which is always a plus.  the neighborhood is developing so not fully baked yet but you are certainly close to more mature neighborhoods and downtown Dallas, as well as Love Field and DFW.I did say this hotel has great views since my room faced the "Riverwalk" which is still being developed.  the views will be spectacular.I have to go back to the staff here as that is what makes this Courtyard so special.  EVERYONE is friendly, helpful and simply engaging. Thank you to everyone at the Courtyard for all you do - it matters :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r543397795-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>543397795</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Exceptional new property and service.</t>
+  </si>
+  <si>
+    <t>Loved this brand new Courtyard. Lovely views, great rooms, super Bistro 2.0. Thanks to Mirea, Christy, and Matthew for making me feel welcome and valued as a guest. I’ll always stay here when I visit. Great Conference facility too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Loved this brand new Courtyard. Lovely views, great rooms, super Bistro 2.0. Thanks to Mirea, Christy, and Matthew for making me feel welcome and valued as a guest. I’ll always stay here when I visit. Great Conference facility too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r539398854-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>539398854</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Very New and Convenient for Texas Motor Speedway Event</t>
+  </si>
+  <si>
+    <t>It was a fairly new place.  We were there for the AAA 500 at Texas Motor Speedway.  This place put us 15 mins away and made traffic a breeze getting in.  My dad required a handicap room.  It had a built in handicap chair in the walk in shower.  Unfortunately, For the handicap rooms they only have 1 bed so I requested a roll away.  It was so new there was still bubble wrap on it when they brought it up.  The room was very accommodating to his needs as far as size and the bigger bathroom.  Staying at Marriott hotels, we take advantage of the mobile app and "chatting" with the front desk for additional needs.  They didn't respond but it seemed like the place was still adjusting.  I was able to go do downstairs and make my request in person.  Everyone was sweet and helpful.  Breakfast wasn't free but there's McDonalds not far from the hotel.  Overall, this will be our place to stay when we're in town for the races.   MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a fairly new place.  We were there for the AAA 500 at Texas Motor Speedway.  This place put us 15 mins away and made traffic a breeze getting in.  My dad required a handicap room.  It had a built in handicap chair in the walk in shower.  Unfortunately, For the handicap rooms they only have 1 bed so I requested a roll away.  It was so new there was still bubble wrap on it when they brought it up.  The room was very accommodating to his needs as far as size and the bigger bathroom.  Staying at Marriott hotels, we take advantage of the mobile app and "chatting" with the front desk for additional needs.  They didn't respond but it seemed like the place was still adjusting.  I was able to go do downstairs and make my request in person.  Everyone was sweet and helpful.  Breakfast wasn't free but there's McDonalds not far from the hotel.  Overall, this will be our place to stay when we're in town for the races.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529933740-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>529933740</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Staycation on opening weekend of this great addition to Flower Mound</t>
+  </si>
+  <si>
+    <t>The views from our 5th floor balcony was great, overlooking the new riverwalk amenities. The sunrise was beautiful.  Hotel bar was great also.  Looking forward to the opportunities this hotel is going to bring to surrounding residence and businesses as well as visitors to the Flower Mound areaMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Amy H, General Manager at Courtyard Dallas Flower Mound, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>The views from our 5th floor balcony was great, overlooking the new riverwalk amenities. The sunrise was beautiful.  Hotel bar was great also.  Looking forward to the opportunities this hotel is going to bring to surrounding residence and businesses as well as visitors to the Flower Mound areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529678046-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>529678046</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Not your normal courtyard</t>
+  </si>
+  <si>
+    <t>Brand new and perfect. Open area with great views from patio. Great rooms for meetings. Bar and food were excellent.  Highly endorse. The new river walk is out the back door.   Great. Staff was very friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new and perfect. Open area with great views from patio. Great rooms for meetings. Bar and food were excellent.  Highly endorse. The new river walk is out the back door.   Great. Staff was very friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529655020-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>529655020</t>
+  </si>
+  <si>
+    <t>We loved it!</t>
+  </si>
+  <si>
+    <t>My husband and I had a wonderful night at the Courtyard hotel the first night of its opening... The rooms, service, food, and atmosphere were all exquisite! We really loved our stay in this GORGEOUS hotel!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529653855-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>529653855</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>We had a wonderful experience in the hotel. The Room was very clean and well equipped, the staff was very nice and helpful. Everything was beyond our exceptions.Ask for a view of the riverwalk, it's beautiful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r529628807-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>529628807</t>
+  </si>
+  <si>
+    <t>Awesome Meeting Areas and Brand New Rooms</t>
+  </si>
+  <si>
+    <t>This brand new hotel is flawless.  From the meeting rooms to the staff to the bar menu every aspect glows with efficiency and effectiveness.  Every staff person we met was knowledgeable friendly and thoroughly engaged.  The pool area is gorgeous as is the gym area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528582628-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>528582628</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and brand new!  The Front Desk Staff was extremely welcoming, the rooms were clean and immaculate, and food was delish.  There wasn’t anything I didn’t like about this hotel.  The hotel is located on a river walk behind a hospital and beautiful homes nearby. I will definitely be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and brand new!  The Front Desk Staff was extremely welcoming, the rooms were clean and immaculate, and food was delish.  There wasn’t anything I didn’t like about this hotel.  The hotel is located on a river walk behind a hospital and beautiful homes nearby. I will definitely be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55844-d12879973-r528373189-Courtyard_Dallas_Flower_Mound-Flower_Mound_Texas.html</t>
+  </si>
+  <si>
+    <t>528373189</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing new hotel</t>
+  </si>
+  <si>
+    <t>This place is great!  All the employees are excellent and greet you immediately.  They have a great indoor pool, large fitness center, laundry room to do your clothes.  The bar/restaurant is the best!  They have booths with individual screens and an excellent selection of drinks and food.  There are two large fire pits outside with lots of seating.  The rooms are really nice and new with lots of ports for plugging devices, interactive television to stream Netflix and more.  Mini-fridges in all rooms and bathroom was large with a very nice shower.  The beds are super comfortable too! I can't say enough about this place.  It's in a great location with a river view from our room.  This will be a very popular destination.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is great!  All the employees are excellent and greet you immediately.  They have a great indoor pool, large fitness center, laundry room to do your clothes.  The bar/restaurant is the best!  They have booths with individual screens and an excellent selection of drinks and food.  There are two large fire pits outside with lots of seating.  The rooms are really nice and new with lots of ports for plugging devices, interactive television to stream Netflix and more.  Mini-fridges in all rooms and bathroom was large with a very nice shower.  The beds are super comfortable too! I can't say enough about this place.  It's in a great location with a river view from our room.  This will be a very popular destination.More</t>
   </si>
 </sst>
 </file>
@@ -1049,124 +1256,116 @@
       <c r="A2" t="n">
         <v>66495</v>
       </c>
-      <c r="B2" t="n">
-        <v>126792</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66495</v>
       </c>
-      <c r="B3" t="n">
-        <v>126793</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1174,137 +1373,135 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66495</v>
       </c>
-      <c r="B4" t="n">
-        <v>126794</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X4" t="s">
-        <v>74</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66495</v>
       </c>
-      <c r="B5" t="n">
-        <v>126795</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1317,240 +1514,222 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66495</v>
       </c>
-      <c r="B7" t="n">
-        <v>126796</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66495</v>
       </c>
-      <c r="B8" t="n">
-        <v>126797</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66495</v>
       </c>
-      <c r="B9" t="n">
-        <v>1205</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1561,394 +1740,368 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66495</v>
       </c>
-      <c r="B10" t="n">
-        <v>3133</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66495</v>
       </c>
-      <c r="B11" t="n">
-        <v>126798</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66495</v>
       </c>
-      <c r="B12" t="n">
-        <v>126799</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" t="n">
+        <v>51</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66495</v>
       </c>
-      <c r="B13" t="n">
-        <v>36151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="X13" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66495</v>
       </c>
-      <c r="B14" t="n">
-        <v>2077</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66495</v>
       </c>
-      <c r="B15" t="n">
-        <v>72526</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
         <v>45</v>
       </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1959,10 +2112,819 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" t="s">
+        <v>145</v>
+      </c>
       <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>160</v>
+      </c>
+      <c r="X19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>191</v>
+      </c>
+      <c r="J22" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>196</v>
+      </c>
+      <c r="X23" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" t="s">
+        <v>88</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>222</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>196</v>
+      </c>
+      <c r="X27" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66495</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
